--- a/1984/Assets/Resources/Dialogue/Dialogue.xlsx
+++ b/1984/Assets/Resources/Dialogue/Dialogue.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,35 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janghyun\Desktop\JangHyun\Programming\Github\1984_Project\1984\Assets\Resources\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E399356B-7D16-45C6-99A0-59D3C27251AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C6E44-F235-4F97-BFBC-CD8F56608A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26040" yWindow="6780" windowWidth="15585" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="4050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
-    <sheet name="asd" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Script</t>
-  </si>
-  <si>
-    <t>파슨스와 만남</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>윈스턴</t>
   </si>
@@ -63,36 +47,31 @@
     <t>이만 가보겠습니다.</t>
   </si>
   <si>
-    <t>1_1</t>
-  </si>
-  <si>
     <t>아직 안먹었습니다.</t>
   </si>
   <si>
-    <t>1_2</t>
-  </si>
-  <si>
     <t>오늘따라 피곤하네요.</t>
   </si>
   <si>
-    <t>1_3</t>
-  </si>
-  <si>
     <t>안녕히가세요.</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>asdasd</t>
+    <t>text</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1040,165 +1019,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1984/Assets/Resources/Dialogue/Dialogue.xlsx
+++ b/1984/Assets/Resources/Dialogue/Dialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janghyun\Desktop\JangHyun\Programming\Github\1984_Project\1984\Assets\Resources\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C6E44-F235-4F97-BFBC-CD8F56608A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707BF08D-6290-4EAA-A494-5CDABB0AB1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1275" windowWidth="20220" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -56,15 +56,15 @@
     <t>안녕히가세요.</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Character</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
+    <t>Id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>character</t>
+    <t>Text</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -658,12 +658,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1023,110 +1026,113 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/1984/Assets/Resources/Dialogue/Dialogue.xlsx
+++ b/1984/Assets/Resources/Dialogue/Dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janghyun\Desktop\JangHyun\Programming\Github\1984_Project\1984\Assets\Resources\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707BF08D-6290-4EAA-A494-5CDABB0AB1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B667B7-A9ED-4FA3-A30C-987F6719FC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="1275" windowWidth="20220" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,11 +56,11 @@
     <t>안녕히가세요.</t>
   </si>
   <si>
+    <t>Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Character</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1039,10 +1039,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
